--- a/PICO Contest/SSCS Chipathon Pin List.xlsx
+++ b/PICO Contest/SSCS Chipathon Pin List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_Masterarbeit\pll2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_Masterarbeit\pll2022\PICO Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A83D8-3DE0-40A3-B3E1-CB8B05272F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CCA3E5-BCCF-4CD9-A939-833172BC9DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,22 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,7 +463,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -486,7 +479,7 @@
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,7 +506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -521,62 +514,62 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,7 +579,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -605,160 +598,160 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -768,127 +761,127 @@
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
